--- a/data/Results.xlsx
+++ b/data/Results.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="24030" windowHeight="10335"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="25440" windowHeight="15045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flat Clustering" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,17 @@
     <sheet name="Affinity Prop" sheetId="4" r:id="rId3"/>
     <sheet name="Curvature" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="97">
   <si>
     <t>K-means</t>
   </si>
@@ -303,15 +308,37 @@
   <si>
     <t>dim</t>
   </si>
+  <si>
+    <t>k-med ran</t>
+  </si>
+  <si>
+    <t>PAM logn ran</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -334,13 +361,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="23">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -642,11 +713,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -7959,58 +8030,82 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" customWidth="1"/>
+    <col min="14" max="15" width="8.85546875" customWidth="1"/>
+    <col min="19" max="20" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>72</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
       </c>
       <c r="D1" t="s">
         <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
         <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" t="s">
         <v>72</v>
       </c>
       <c r="J1" t="s">
         <v>76</v>
       </c>
       <c r="K1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>77</v>
       </c>
@@ -8018,1724 +8113,2573 @@
         <v>78</v>
       </c>
       <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
         <v>78</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>87</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" t="s">
         <v>87</v>
       </c>
-      <c r="H2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="R2" t="s">
         <v>86</v>
       </c>
-      <c r="J2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2.1800000000000001E-4</v>
-      </c>
-      <c r="C3">
-        <v>0.61515299999999995</v>
       </c>
       <c r="D3">
         <v>2.32E-4</v>
       </c>
       <c r="E3">
+        <v>0.208568</v>
+      </c>
+      <c r="F3">
+        <v>2.9395000000000001E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.236489</v>
+      </c>
+      <c r="H3">
+        <v>0.16646</v>
+      </c>
+      <c r="J3">
+        <v>0.61515299999999995</v>
+      </c>
+      <c r="K3">
         <v>0.51013399999999998</v>
       </c>
-      <c r="F3">
-        <v>0.208568</v>
-      </c>
-      <c r="G3">
+      <c r="L3">
         <v>0.77229700000000001</v>
       </c>
-      <c r="H3">
+      <c r="M3">
+        <v>0.64318600000000004</v>
+      </c>
+      <c r="N3">
+        <v>0.74221800000000004</v>
+      </c>
+      <c r="O3">
+        <v>0.63337600000000005</v>
+      </c>
+      <c r="Q3">
         <v>1.58525</v>
       </c>
-      <c r="I3">
-        <v>2.9395000000000001E-2</v>
-      </c>
-      <c r="J3">
-        <v>0.64318600000000004</v>
-      </c>
-      <c r="K3">
+      <c r="R3">
         <v>2.3336109999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>1.7108429999999999</v>
+      </c>
+      <c r="T3">
+        <v>2.0014419999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2.2539999999999999E-3</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
       </c>
       <c r="D4">
         <v>3.0019999999999999E-3</v>
       </c>
       <c r="E4">
+        <v>3.1605490000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.22569900000000001</v>
+      </c>
+      <c r="G4">
+        <v>3.7941259999999999</v>
+      </c>
+      <c r="H4">
+        <v>5.122153</v>
+      </c>
+      <c r="J4">
         <v>0.5</v>
       </c>
-      <c r="F4">
-        <v>3.1605490000000001</v>
-      </c>
-      <c r="G4">
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
         <v>0.887656</v>
       </c>
-      <c r="H4">
+      <c r="M4">
+        <v>0.76726899999999998</v>
+      </c>
+      <c r="N4">
+        <v>0.76212199999999997</v>
+      </c>
+      <c r="O4">
+        <v>0.732074</v>
+      </c>
+      <c r="Q4">
         <v>2560631.4593409998</v>
       </c>
-      <c r="I4">
-        <v>0.22569900000000001</v>
-      </c>
-      <c r="J4">
-        <v>0.76726899999999998</v>
-      </c>
-      <c r="K4">
+      <c r="R4">
         <v>2550279.5662949998</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>2787312.008841</v>
+      </c>
+      <c r="T4">
+        <v>1623132.096315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>9.8335000000000006E-2</v>
-      </c>
-      <c r="C6">
-        <v>0.39139400000000002</v>
       </c>
       <c r="D6">
         <v>9.2838000000000004E-2</v>
       </c>
       <c r="E6">
+        <v>398.150463</v>
+      </c>
+      <c r="F6">
+        <v>10.060720999999999</v>
+      </c>
+      <c r="G6">
+        <v>420.122321</v>
+      </c>
+      <c r="H6">
+        <v>449.70735999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.39139400000000002</v>
+      </c>
+      <c r="K6">
         <v>0.38581199999999999</v>
       </c>
-      <c r="F6">
-        <v>398.150463</v>
-      </c>
-      <c r="G6">
+      <c r="L6">
         <v>0.71587800000000001</v>
       </c>
-      <c r="H6">
+      <c r="M6">
+        <v>0.69682699999999997</v>
+      </c>
+      <c r="N6">
+        <v>0.65438200000000002</v>
+      </c>
+      <c r="O6">
+        <v>0.66940299999999997</v>
+      </c>
+      <c r="Q6">
         <v>16.936260999999998</v>
       </c>
-      <c r="I6">
-        <v>10.060720999999999</v>
-      </c>
-      <c r="J6">
-        <v>0.69682699999999997</v>
-      </c>
-      <c r="K6">
+      <c r="R6">
         <v>18.566928999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>13.504312000000001</v>
+      </c>
+      <c r="T6">
+        <v>6.274578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.15015999999999999</v>
-      </c>
-      <c r="C7">
-        <v>0.40628300000000001</v>
       </c>
       <c r="D7">
         <v>0.13759099999999999</v>
       </c>
       <c r="E7">
+        <v>673.49344099999996</v>
+      </c>
+      <c r="F7">
+        <v>14.350516000000001</v>
+      </c>
+      <c r="G7">
+        <v>673.98496599999999</v>
+      </c>
+      <c r="H7">
+        <v>761.19131900000002</v>
+      </c>
+      <c r="J7">
+        <v>0.40628300000000001</v>
+      </c>
+      <c r="K7">
         <v>0.394646</v>
       </c>
-      <c r="F7">
-        <v>673.49344099999996</v>
-      </c>
-      <c r="G7">
+      <c r="L7">
         <v>0.45591399999999999</v>
       </c>
-      <c r="H7">
+      <c r="M7">
+        <v>0.71613199999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.58332499999999998</v>
+      </c>
+      <c r="O7">
+        <v>0.59833400000000003</v>
+      </c>
+      <c r="Q7">
         <v>15.354760000000001</v>
       </c>
-      <c r="I7">
-        <v>14.350516000000001</v>
-      </c>
-      <c r="J7">
-        <v>0.71613199999999999</v>
-      </c>
-      <c r="K7">
+      <c r="R7">
         <v>27.985928999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>20.784616</v>
+      </c>
+      <c r="T7">
+        <v>5.7510250000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>4.7934999999999998E-2</v>
-      </c>
-      <c r="C8">
-        <v>0.38490999999999997</v>
       </c>
       <c r="D8">
         <v>5.1153999999999998E-2</v>
       </c>
       <c r="E8">
+        <v>175.19316499999999</v>
+      </c>
+      <c r="F8">
+        <v>3.4020190000000001</v>
+      </c>
+      <c r="G8">
+        <v>173.16467900000001</v>
+      </c>
+      <c r="H8">
+        <v>231.880008</v>
+      </c>
+      <c r="J8">
         <v>0.38490999999999997</v>
       </c>
-      <c r="F8">
-        <v>175.19316499999999</v>
-      </c>
-      <c r="G8">
+      <c r="K8">
+        <v>0.38490999999999997</v>
+      </c>
+      <c r="L8">
         <v>0.50446299999999999</v>
       </c>
-      <c r="H8">
+      <c r="M8">
+        <v>0.55721500000000002</v>
+      </c>
+      <c r="N8">
+        <v>0.58197600000000005</v>
+      </c>
+      <c r="O8">
+        <v>0.58369099999999996</v>
+      </c>
+      <c r="Q8">
         <v>5.7470039999999996</v>
       </c>
-      <c r="I8">
-        <v>3.4020190000000001</v>
-      </c>
-      <c r="J8">
-        <v>0.55721500000000002</v>
-      </c>
-      <c r="K8">
+      <c r="R8">
         <v>13.108433</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>7.4691700000000001</v>
+      </c>
+      <c r="T8">
+        <v>9.3685240000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>6.8574999999999997E-2</v>
-      </c>
-      <c r="C9">
-        <v>0.27590900000000002</v>
       </c>
       <c r="D9">
         <v>6.7131999999999997E-2</v>
       </c>
       <c r="E9">
+        <v>239.75209100000001</v>
+      </c>
+      <c r="F9">
+        <v>4.3959380000000001</v>
+      </c>
+      <c r="G9">
+        <v>252.44865799999999</v>
+      </c>
+      <c r="H9">
+        <v>305.31863499999997</v>
+      </c>
+      <c r="J9">
+        <v>0.27590900000000002</v>
+      </c>
+      <c r="K9">
         <v>0.26485900000000001</v>
       </c>
-      <c r="F9">
-        <v>239.75209100000001</v>
-      </c>
-      <c r="G9">
+      <c r="L9">
         <v>0.50182800000000005</v>
       </c>
-      <c r="H9">
+      <c r="M9">
+        <v>0.59897199999999995</v>
+      </c>
+      <c r="N9">
+        <v>0.66563700000000003</v>
+      </c>
+      <c r="O9">
+        <v>0.58512799999999998</v>
+      </c>
+      <c r="Q9">
         <v>5.4679719999999996</v>
       </c>
-      <c r="I9">
-        <v>4.3959380000000001</v>
-      </c>
-      <c r="J9">
-        <v>0.59897199999999995</v>
-      </c>
-      <c r="K9">
+      <c r="R9">
         <v>7.4229219999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>4.3479460000000003</v>
+      </c>
+      <c r="T9">
+        <v>6.1737029999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>6.0706000000000003E-2</v>
-      </c>
-      <c r="C10">
-        <v>0.26003999999999999</v>
       </c>
       <c r="D10">
         <v>6.9933999999999996E-2</v>
       </c>
       <c r="E10">
+        <v>242.85108</v>
+      </c>
+      <c r="F10">
+        <v>4.4046950000000002</v>
+      </c>
+      <c r="G10">
+        <v>255.92041399999999</v>
+      </c>
+      <c r="H10">
+        <v>271.63819999999998</v>
+      </c>
+      <c r="J10">
+        <v>0.26003999999999999</v>
+      </c>
+      <c r="K10">
         <v>0.23731099999999999</v>
       </c>
-      <c r="F10">
-        <v>242.85108</v>
-      </c>
-      <c r="G10">
+      <c r="L10">
         <v>0.45496700000000001</v>
       </c>
-      <c r="H10">
+      <c r="M10">
+        <v>0.44552999999999998</v>
+      </c>
+      <c r="N10">
+        <v>0.44258900000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.50753099999999995</v>
+      </c>
+      <c r="Q10">
         <v>6.2732109999999999</v>
       </c>
-      <c r="I10">
-        <v>4.4046950000000002</v>
-      </c>
-      <c r="J10">
-        <v>0.44552999999999998</v>
-      </c>
-      <c r="K10">
+      <c r="R10">
         <v>7.2046679999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>7.9297360000000001</v>
+      </c>
+      <c r="T10">
+        <v>8.5636609999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0.10618</v>
-      </c>
-      <c r="C11">
-        <v>0.227379</v>
       </c>
       <c r="D11">
         <v>0.103366</v>
       </c>
       <c r="E11">
+        <v>441.04751800000003</v>
+      </c>
+      <c r="F11">
+        <v>10.764023999999999</v>
+      </c>
+      <c r="G11">
+        <v>481.41184500000003</v>
+      </c>
+      <c r="H11">
+        <v>525.07140000000004</v>
+      </c>
+      <c r="J11">
+        <v>0.227379</v>
+      </c>
+      <c r="K11">
         <v>0.21831200000000001</v>
       </c>
-      <c r="F11">
-        <v>441.04751800000003</v>
-      </c>
-      <c r="G11">
+      <c r="L11">
         <v>0.446662</v>
       </c>
-      <c r="H11">
+      <c r="M11">
+        <v>0.60855099999999995</v>
+      </c>
+      <c r="N11">
+        <v>0.55405400000000005</v>
+      </c>
+      <c r="O11">
+        <v>0.53678899999999996</v>
+      </c>
+      <c r="Q11">
         <v>8.3684460000000005</v>
       </c>
-      <c r="I11">
-        <v>10.764023999999999</v>
-      </c>
-      <c r="J11">
-        <v>0.60855099999999995</v>
-      </c>
-      <c r="K11">
+      <c r="R11">
         <v>9.7985799999999994</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>8.6927819999999993</v>
+      </c>
+      <c r="T11">
+        <v>3.5001500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>5.7307999999999998E-2</v>
-      </c>
-      <c r="C12">
-        <v>0.38642199999999999</v>
       </c>
       <c r="D12">
         <v>5.8464000000000002E-2</v>
       </c>
       <c r="E12">
+        <v>226.64371800000001</v>
+      </c>
+      <c r="F12">
+        <v>4.4066400000000003</v>
+      </c>
+      <c r="G12">
+        <v>240.02176499999999</v>
+      </c>
+      <c r="H12">
+        <v>301.52069799999998</v>
+      </c>
+      <c r="J12">
+        <v>0.38642199999999999</v>
+      </c>
+      <c r="K12">
         <v>0.38001699999999999</v>
       </c>
-      <c r="F12">
-        <v>226.64371800000001</v>
-      </c>
-      <c r="G12">
+      <c r="L12">
         <v>0.544539</v>
       </c>
-      <c r="H12">
+      <c r="M12">
+        <v>0.509162</v>
+      </c>
+      <c r="N12">
+        <v>0.55925499999999995</v>
+      </c>
+      <c r="O12">
+        <v>0.51766199999999996</v>
+      </c>
+      <c r="Q12">
         <v>5.6407179999999997</v>
       </c>
-      <c r="I12">
-        <v>4.4066400000000003</v>
-      </c>
-      <c r="J12">
-        <v>0.509162</v>
-      </c>
-      <c r="K12">
+      <c r="R12">
         <v>8.2050110000000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>5.717352</v>
+      </c>
+      <c r="T12">
+        <v>6.5748430000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>4.6182000000000001E-2</v>
-      </c>
-      <c r="C13">
-        <v>0.36429600000000001</v>
       </c>
       <c r="D13">
         <v>4.2180000000000002E-2</v>
       </c>
       <c r="E13">
+        <v>149.92491000000001</v>
+      </c>
+      <c r="F13">
+        <v>3.3581430000000001</v>
+      </c>
+      <c r="G13">
+        <v>157.047202</v>
+      </c>
+      <c r="H13">
+        <v>207.85791800000001</v>
+      </c>
+      <c r="J13">
+        <v>0.36429600000000001</v>
+      </c>
+      <c r="K13">
         <v>0.37875300000000001</v>
       </c>
-      <c r="F13">
-        <v>149.92491000000001</v>
-      </c>
-      <c r="G13">
+      <c r="L13">
         <v>0.49062600000000001</v>
       </c>
-      <c r="H13">
+      <c r="M13">
+        <v>0.444859</v>
+      </c>
+      <c r="N13">
+        <v>0.46932600000000002</v>
+      </c>
+      <c r="O13">
+        <v>0.47345500000000001</v>
+      </c>
+      <c r="Q13">
         <v>4.9966189999999999</v>
       </c>
-      <c r="I13">
-        <v>3.3581430000000001</v>
-      </c>
-      <c r="J13">
-        <v>0.444859</v>
-      </c>
-      <c r="K13">
+      <c r="R13">
         <v>5.8310149999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>5.3216999999999999</v>
+      </c>
+      <c r="T13">
+        <v>4.9418899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>3.7808000000000001E-2</v>
-      </c>
-      <c r="C14">
-        <v>0.36542599999999997</v>
       </c>
       <c r="D14">
         <v>4.0523999999999998E-2</v>
       </c>
       <c r="E14">
+        <v>131.89308500000001</v>
+      </c>
+      <c r="F14">
+        <v>3.265952</v>
+      </c>
+      <c r="G14">
+        <v>137.93498</v>
+      </c>
+      <c r="H14">
+        <v>169.857316</v>
+      </c>
+      <c r="J14">
+        <v>0.36542599999999997</v>
+      </c>
+      <c r="K14">
         <v>0.35555999999999999</v>
       </c>
-      <c r="F14">
-        <v>131.89308500000001</v>
-      </c>
-      <c r="G14">
+      <c r="L14">
         <v>0.50884600000000002</v>
       </c>
-      <c r="H14">
+      <c r="M14">
+        <v>0.44022099999999997</v>
+      </c>
+      <c r="N14">
+        <v>0.496249</v>
+      </c>
+      <c r="O14">
+        <v>0.43880999999999998</v>
+      </c>
+      <c r="Q14">
         <v>9.0471360000000001</v>
       </c>
-      <c r="I14">
-        <v>3.265952</v>
-      </c>
-      <c r="J14">
-        <v>0.44022099999999997</v>
-      </c>
-      <c r="K14">
+      <c r="R14">
         <v>16.430706000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>8.5394729999999992</v>
+      </c>
+      <c r="T14">
+        <v>9.5406390000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.21263799999999999</v>
-      </c>
-      <c r="C15">
-        <v>0.37456800000000001</v>
       </c>
       <c r="D15">
         <v>0.21384700000000001</v>
       </c>
       <c r="E15">
+        <v>1216.934581</v>
+      </c>
+      <c r="F15">
+        <v>21.455722999999999</v>
+      </c>
+      <c r="G15">
+        <v>1251.5062700000001</v>
+      </c>
+      <c r="H15">
+        <v>1250.7293279999999</v>
+      </c>
+      <c r="J15">
+        <v>0.37456800000000001</v>
+      </c>
+      <c r="K15">
         <v>0.37674000000000002</v>
       </c>
-      <c r="F15">
-        <v>1216.934581</v>
-      </c>
-      <c r="G15">
+      <c r="L15">
         <v>0.88498399999999999</v>
       </c>
-      <c r="H15">
+      <c r="M15">
+        <v>0.63202999999999998</v>
+      </c>
+      <c r="N15">
+        <v>0.65047100000000002</v>
+      </c>
+      <c r="O15">
+        <v>0.63677700000000004</v>
+      </c>
+      <c r="Q15">
         <v>5.1068049999999996</v>
       </c>
-      <c r="I15">
-        <v>21.455722999999999</v>
-      </c>
-      <c r="J15">
-        <v>0.63202999999999998</v>
-      </c>
-      <c r="K15">
+      <c r="R15">
         <v>6.2796349999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>5.3588959999999997</v>
+      </c>
+      <c r="T15">
+        <v>6.0776000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>3.8066999999999997E-2</v>
-      </c>
-      <c r="C16">
-        <v>0.51854299999999998</v>
       </c>
       <c r="D16">
         <v>6.0366000000000003E-2</v>
       </c>
       <c r="E16">
+        <v>106.618672</v>
+      </c>
+      <c r="F16">
+        <v>2.7353399999999999</v>
+      </c>
+      <c r="G16">
+        <v>120.89337399999999</v>
+      </c>
+      <c r="H16">
+        <v>147.13660899999999</v>
+      </c>
+      <c r="J16">
+        <v>0.51854299999999998</v>
+      </c>
+      <c r="K16">
         <v>0.51645799999999997</v>
       </c>
-      <c r="F16">
-        <v>106.618672</v>
-      </c>
-      <c r="G16">
+      <c r="L16">
         <v>0.591418</v>
       </c>
-      <c r="H16">
+      <c r="M16">
+        <v>0.81590700000000005</v>
+      </c>
+      <c r="N16">
+        <v>0.76090899999999995</v>
+      </c>
+      <c r="O16">
+        <v>0.78493299999999999</v>
+      </c>
+      <c r="Q16">
         <v>6.459187</v>
       </c>
-      <c r="I16">
-        <v>2.7353399999999999</v>
-      </c>
-      <c r="J16">
-        <v>0.81590700000000005</v>
-      </c>
-      <c r="K16">
+      <c r="R16">
         <v>13.393969</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>8.6247520000000009</v>
+      </c>
+      <c r="T16">
+        <v>7.7912290000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>3.4612999999999998E-2</v>
-      </c>
-      <c r="C17">
-        <v>0.44476100000000002</v>
       </c>
       <c r="D17">
         <v>3.5234000000000001E-2</v>
       </c>
       <c r="E17">
+        <v>113.276946</v>
+      </c>
+      <c r="F17">
+        <v>3.0482420000000001</v>
+      </c>
+      <c r="G17">
+        <v>126.75776500000001</v>
+      </c>
+      <c r="H17">
+        <v>169.321246</v>
+      </c>
+      <c r="J17">
+        <v>0.44476100000000002</v>
+      </c>
+      <c r="K17">
         <v>0.43088700000000002</v>
       </c>
-      <c r="F17">
-        <v>113.276946</v>
-      </c>
-      <c r="G17">
+      <c r="L17">
         <v>0.67948299999999995</v>
       </c>
-      <c r="H17">
+      <c r="M17">
+        <v>0.65312599999999998</v>
+      </c>
+      <c r="N17">
+        <v>0.705314</v>
+      </c>
+      <c r="O17">
+        <v>0.78005599999999997</v>
+      </c>
+      <c r="Q17">
         <v>4.170928</v>
       </c>
-      <c r="I17">
-        <v>3.0482420000000001</v>
-      </c>
-      <c r="J17">
-        <v>0.65312599999999998</v>
-      </c>
-      <c r="K17">
+      <c r="R17">
         <v>5.2154170000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>4.5061879999999999</v>
+      </c>
+      <c r="T17">
+        <v>3.6825459999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.195525</v>
-      </c>
-      <c r="C18">
-        <v>0.25828899999999999</v>
       </c>
       <c r="D18">
         <v>0.196629</v>
       </c>
       <c r="E18">
+        <v>1113.7527190000001</v>
+      </c>
+      <c r="F18">
+        <v>17.638452000000001</v>
+      </c>
+      <c r="G18">
+        <v>1126.137915</v>
+      </c>
+      <c r="H18">
+        <v>1250.7293279999999</v>
+      </c>
+      <c r="J18">
+        <v>0.25828899999999999</v>
+      </c>
+      <c r="K18">
         <v>0.22013199999999999</v>
       </c>
-      <c r="F18">
-        <v>1113.7527190000001</v>
-      </c>
-      <c r="G18">
+      <c r="L18">
         <v>0.78583700000000001</v>
       </c>
-      <c r="H18">
+      <c r="M18">
+        <v>0.76005699999999998</v>
+      </c>
+      <c r="N18">
+        <v>0.71745800000000004</v>
+      </c>
+      <c r="O18">
+        <v>0.63677700000000004</v>
+      </c>
+      <c r="Q18">
         <v>3.36748</v>
       </c>
-      <c r="I18">
-        <v>17.638452000000001</v>
-      </c>
-      <c r="J18">
-        <v>0.76005699999999998</v>
-      </c>
-      <c r="K18">
+      <c r="R18">
         <v>4.0845000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>4.2123689999999998</v>
+      </c>
+      <c r="T18">
+        <v>6.0776000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>9.9195000000000005E-2</v>
-      </c>
-      <c r="C19">
-        <v>0.29781299999999999</v>
       </c>
       <c r="D19">
         <v>9.6506999999999996E-2</v>
       </c>
       <c r="E19">
+        <v>383.85414300000002</v>
+      </c>
+      <c r="F19">
+        <v>10.258742</v>
+      </c>
+      <c r="G19">
+        <v>383.29828600000002</v>
+      </c>
+      <c r="H19">
+        <v>494.55372199999999</v>
+      </c>
+      <c r="J19">
+        <v>0.29781299999999999</v>
+      </c>
+      <c r="K19">
         <v>0.28868899999999997</v>
       </c>
-      <c r="F19">
-        <v>383.85414300000002</v>
-      </c>
-      <c r="G19">
+      <c r="L19">
         <v>0.58920300000000003</v>
       </c>
-      <c r="H19">
+      <c r="M19">
+        <v>0.58428100000000005</v>
+      </c>
+      <c r="N19">
+        <v>0.57629600000000003</v>
+      </c>
+      <c r="O19">
+        <v>0.44558399999999998</v>
+      </c>
+      <c r="Q19">
         <v>3.4202319999999999</v>
       </c>
-      <c r="I19">
-        <v>10.258742</v>
-      </c>
-      <c r="J19">
-        <v>0.58428100000000005</v>
-      </c>
-      <c r="K19">
+      <c r="R19">
         <v>3.7553709999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>4.1962710000000003</v>
+      </c>
+      <c r="T19">
+        <v>2.3093110000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>0.124664</v>
-      </c>
-      <c r="C20">
-        <v>0.28569499999999998</v>
       </c>
       <c r="D20">
         <v>0.120406</v>
       </c>
       <c r="E20">
+        <v>475.68688300000002</v>
+      </c>
+      <c r="F20">
+        <v>10.959961</v>
+      </c>
+      <c r="G20">
+        <v>473.51680199999998</v>
+      </c>
+      <c r="H20">
+        <v>547.22607900000003</v>
+      </c>
+      <c r="J20">
+        <v>0.28569499999999998</v>
+      </c>
+      <c r="K20">
         <v>0.260019</v>
       </c>
-      <c r="F20">
-        <v>475.68688300000002</v>
-      </c>
-      <c r="G20">
+      <c r="L20">
         <v>0.71110700000000004</v>
       </c>
-      <c r="H20">
+      <c r="M20">
+        <v>0.53051000000000004</v>
+      </c>
+      <c r="N20">
+        <v>0.60644299999999995</v>
+      </c>
+      <c r="O20">
+        <v>0.60985100000000003</v>
+      </c>
+      <c r="Q20">
         <v>4.8403729999999996</v>
       </c>
-      <c r="I20">
-        <v>10.959961</v>
-      </c>
-      <c r="J20">
-        <v>0.53051000000000004</v>
-      </c>
-      <c r="K20">
+      <c r="R20">
         <v>3.9861589999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>3.8064399999999998</v>
+      </c>
+      <c r="T20">
+        <v>2.8114490000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>5.2975000000000001E-2</v>
-      </c>
-      <c r="C21">
-        <v>0.54862999999999995</v>
       </c>
       <c r="D21">
         <v>5.0555999999999997E-2</v>
       </c>
       <c r="E21">
+        <v>181.007577</v>
+      </c>
+      <c r="F21">
+        <v>3.9162270000000001</v>
+      </c>
+      <c r="G21">
+        <v>179.73916299999999</v>
+      </c>
+      <c r="H21">
+        <v>228.86424199999999</v>
+      </c>
+      <c r="J21">
+        <v>0.54862999999999995</v>
+      </c>
+      <c r="K21">
         <v>0.47649599999999998</v>
       </c>
-      <c r="F21">
-        <v>181.007577</v>
-      </c>
-      <c r="G21">
+      <c r="L21">
         <v>0.54320800000000002</v>
       </c>
-      <c r="H21">
+      <c r="M21">
+        <v>0.53199600000000002</v>
+      </c>
+      <c r="N21">
+        <v>0.64897000000000005</v>
+      </c>
+      <c r="O21">
+        <v>0.64910800000000002</v>
+      </c>
+      <c r="Q21">
         <v>2.6155059999999999</v>
       </c>
-      <c r="I21">
-        <v>3.9162270000000001</v>
-      </c>
-      <c r="J21">
-        <v>0.53199600000000002</v>
-      </c>
-      <c r="K21">
+      <c r="R21">
         <v>3.7579479999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>2.6626639999999999</v>
+      </c>
+      <c r="T21">
+        <v>3.9483489999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>4.7398000000000003E-2</v>
-      </c>
-      <c r="C22">
-        <v>0.52057200000000003</v>
       </c>
       <c r="D22">
         <v>3.8989999999999997E-2</v>
       </c>
       <c r="E22">
+        <v>128.269722</v>
+      </c>
+      <c r="F22">
+        <v>3.0773229999999998</v>
+      </c>
+      <c r="G22">
+        <v>128.765401</v>
+      </c>
+      <c r="H22">
+        <v>184.64456799999999</v>
+      </c>
+      <c r="J22">
+        <v>0.52057200000000003</v>
+      </c>
+      <c r="K22">
         <v>0.47911500000000001</v>
       </c>
-      <c r="F22">
-        <v>128.269722</v>
-      </c>
-      <c r="G22">
+      <c r="L22">
         <v>0.53911600000000004</v>
       </c>
-      <c r="H22">
+      <c r="M22">
+        <v>0.58831699999999998</v>
+      </c>
+      <c r="N22">
+        <v>0.57001100000000005</v>
+      </c>
+      <c r="O22">
+        <v>0.60678200000000004</v>
+      </c>
+      <c r="Q22">
         <v>3.2095419999999999</v>
       </c>
-      <c r="I22">
-        <v>3.0773229999999998</v>
-      </c>
-      <c r="J22">
-        <v>0.58831699999999998</v>
-      </c>
-      <c r="K22">
+      <c r="R22">
         <v>3.2845710000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>2.6250550000000001</v>
+      </c>
+      <c r="T22">
+        <v>2.8447490000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>6.8432000000000007E-2</v>
-      </c>
-      <c r="C23">
-        <v>0.53716299999999995</v>
       </c>
       <c r="D23">
         <v>7.1846999999999994E-2</v>
       </c>
       <c r="E23">
+        <v>238.846733</v>
+      </c>
+      <c r="F23">
+        <v>4.8789999999999996</v>
+      </c>
+      <c r="G23">
+        <v>238.88019700000001</v>
+      </c>
+      <c r="H23">
+        <v>312.55033900000001</v>
+      </c>
+      <c r="J23">
+        <v>0.53716299999999995</v>
+      </c>
+      <c r="K23">
         <v>0.46440799999999999</v>
       </c>
-      <c r="F23">
-        <v>238.846733</v>
-      </c>
-      <c r="G23">
+      <c r="L23">
         <v>0.51243300000000003</v>
       </c>
-      <c r="H23">
+      <c r="M23">
+        <v>0.53375700000000004</v>
+      </c>
+      <c r="N23">
+        <v>0.56100300000000003</v>
+      </c>
+      <c r="O23">
+        <v>0.58307600000000004</v>
+      </c>
+      <c r="Q23">
         <v>3.192793</v>
       </c>
-      <c r="I23">
-        <v>4.8789999999999996</v>
-      </c>
-      <c r="J23">
-        <v>0.53375700000000004</v>
-      </c>
-      <c r="K23">
+      <c r="R23">
         <v>4.4229029999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>3.2572589999999999</v>
+      </c>
+      <c r="T23">
+        <v>3.7888030000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>0.115163</v>
-      </c>
-      <c r="C24">
-        <v>0.36011100000000001</v>
       </c>
       <c r="D24">
         <v>0.11297500000000001</v>
       </c>
       <c r="E24">
+        <v>457.46689099999998</v>
+      </c>
+      <c r="F24">
+        <v>10.466048000000001</v>
+      </c>
+      <c r="G24">
+        <v>484.86865399999999</v>
+      </c>
+      <c r="H24">
+        <v>550.93990099999996</v>
+      </c>
+      <c r="J24">
         <v>0.36011100000000001</v>
       </c>
-      <c r="F24">
-        <v>457.46689099999998</v>
-      </c>
-      <c r="G24">
+      <c r="K24">
+        <v>0.36011100000000001</v>
+      </c>
+      <c r="L24">
         <v>0.88985899999999996</v>
       </c>
-      <c r="H24">
+      <c r="M24">
+        <v>0.65280800000000005</v>
+      </c>
+      <c r="N24">
+        <v>0.76397899999999996</v>
+      </c>
+      <c r="O24">
+        <v>0.62448899999999996</v>
+      </c>
+      <c r="Q24">
         <v>2.8007110000000002</v>
       </c>
-      <c r="I24">
-        <v>10.466048000000001</v>
-      </c>
-      <c r="J24">
-        <v>0.65280800000000005</v>
-      </c>
-      <c r="K24">
+      <c r="R24">
         <v>3.7635369999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <v>2.8917600000000001</v>
+      </c>
+      <c r="T24">
+        <v>2.967314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>9.1677999999999996E-2</v>
-      </c>
-      <c r="C25">
-        <v>0.36108099999999999</v>
       </c>
       <c r="D25">
         <v>0.120641</v>
       </c>
       <c r="E25">
+        <v>494.93264499999998</v>
+      </c>
+      <c r="F25">
+        <v>11.151502000000001</v>
+      </c>
+      <c r="G25">
+        <v>537.57875899999999</v>
+      </c>
+      <c r="H25">
+        <v>581.35046199999999</v>
+      </c>
+      <c r="J25">
+        <v>0.36108099999999999</v>
+      </c>
+      <c r="K25">
         <v>0.415352</v>
       </c>
-      <c r="F25">
-        <v>494.93264499999998</v>
-      </c>
-      <c r="G25">
+      <c r="L25">
         <v>0.88902099999999995</v>
       </c>
-      <c r="H25">
+      <c r="M25">
+        <v>0.81415800000000005</v>
+      </c>
+      <c r="N25">
+        <v>0.67577299999999996</v>
+      </c>
+      <c r="O25">
+        <v>0.81579999999999997</v>
+      </c>
+      <c r="Q25">
         <v>2.9823240000000002</v>
       </c>
-      <c r="I25">
-        <v>11.151502000000001</v>
-      </c>
-      <c r="J25">
-        <v>0.81415800000000005</v>
-      </c>
-      <c r="K25">
+      <c r="R25">
         <v>3.5810879999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>2.9290989999999999</v>
+      </c>
+      <c r="T25">
+        <v>2.1866949999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>0.115605</v>
-      </c>
-      <c r="C26">
-        <v>0.415352</v>
       </c>
       <c r="D26">
         <v>8.3555000000000004E-2</v>
       </c>
       <c r="E26">
+        <v>341.05719699999997</v>
+      </c>
+      <c r="F26">
+        <v>8.4890880000000006</v>
+      </c>
+      <c r="G26">
+        <v>365.28567099999998</v>
+      </c>
+      <c r="H26">
+        <v>423.817746</v>
+      </c>
+      <c r="J26">
+        <v>0.415352</v>
+      </c>
+      <c r="K26">
         <v>0.35557299999999997</v>
       </c>
-      <c r="F26">
-        <v>341.05719699999997</v>
-      </c>
-      <c r="G26">
+      <c r="L26">
         <v>0.90730500000000003</v>
       </c>
-      <c r="H26">
+      <c r="M26">
+        <v>0.75474399999999997</v>
+      </c>
+      <c r="N26">
+        <v>0.783586</v>
+      </c>
+      <c r="O26">
+        <v>0.73990100000000003</v>
+      </c>
+      <c r="Q26">
         <v>3.6239970000000001</v>
       </c>
-      <c r="I26">
-        <v>8.4890880000000006</v>
-      </c>
-      <c r="J26">
-        <v>0.75474399999999997</v>
-      </c>
-      <c r="K26">
+      <c r="R26">
         <v>3.7376390000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>3.9971909999999999</v>
+      </c>
+      <c r="T26">
+        <v>2.3853059999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>0.11795899999999999</v>
-      </c>
-      <c r="C27">
-        <v>0.27540399999999998</v>
       </c>
       <c r="D27">
         <v>0.10907600000000001</v>
       </c>
       <c r="E27">
+        <v>476.53399899999999</v>
+      </c>
+      <c r="F27">
+        <v>11.243199000000001</v>
+      </c>
+      <c r="G27">
+        <v>527.10128599999996</v>
+      </c>
+      <c r="H27">
+        <v>544.83366599999999</v>
+      </c>
+      <c r="J27">
+        <v>0.27540399999999998</v>
+      </c>
+      <c r="K27">
         <v>0.26460699999999998</v>
       </c>
-      <c r="F27">
-        <v>476.53399899999999</v>
-      </c>
-      <c r="G27">
+      <c r="L27">
         <v>0.83438999999999997</v>
       </c>
-      <c r="H27">
+      <c r="M27">
+        <v>0.53853799999999996</v>
+      </c>
+      <c r="N27">
+        <v>0.601576</v>
+      </c>
+      <c r="O27">
+        <v>0.751467</v>
+      </c>
+      <c r="Q27">
         <v>3.0231919999999999</v>
       </c>
-      <c r="I27">
-        <v>11.243199000000001</v>
-      </c>
-      <c r="J27">
-        <v>0.53853799999999996</v>
-      </c>
-      <c r="K27">
+      <c r="R27">
         <v>3.621569</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>3.3866100000000001</v>
+      </c>
+      <c r="T27">
+        <v>3.0130020000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>6.3115000000000004E-2</v>
-      </c>
-      <c r="C28">
-        <v>0.350831</v>
       </c>
       <c r="D28">
         <v>6.2268999999999998E-2</v>
       </c>
       <c r="E28">
+        <v>227.25724399999999</v>
+      </c>
+      <c r="F28">
+        <v>3.960661</v>
+      </c>
+      <c r="G28">
+        <v>245.76997299999999</v>
+      </c>
+      <c r="H28">
+        <v>315.32939699999997</v>
+      </c>
+      <c r="J28">
+        <v>0.350831</v>
+      </c>
+      <c r="K28">
         <v>0.29815000000000003</v>
       </c>
-      <c r="F28">
-        <v>227.25724399999999</v>
-      </c>
-      <c r="G28">
+      <c r="L28">
         <v>0.83438999999999997</v>
       </c>
-      <c r="H28">
+      <c r="M28">
+        <v>0.69490099999999999</v>
+      </c>
+      <c r="N28">
+        <v>0.71286099999999997</v>
+      </c>
+      <c r="O28">
+        <v>0.63973599999999997</v>
+      </c>
+      <c r="Q28">
         <v>3.0231919999999999</v>
       </c>
-      <c r="I28">
-        <v>3.960661</v>
-      </c>
-      <c r="J28">
-        <v>0.69490099999999999</v>
-      </c>
-      <c r="K28">
+      <c r="R28">
         <v>5.228364</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <v>3.224288</v>
+      </c>
+      <c r="T28">
+        <v>4.750108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>0.101759</v>
-      </c>
-      <c r="C29">
-        <v>0.285858</v>
       </c>
       <c r="D29">
         <v>9.8959000000000005E-2</v>
       </c>
       <c r="E29">
+        <v>360.67603700000001</v>
+      </c>
+      <c r="F29">
+        <v>9.3213969999999993</v>
+      </c>
+      <c r="G29">
+        <v>387.38529399999999</v>
+      </c>
+      <c r="H29">
+        <v>439.12468200000001</v>
+      </c>
+      <c r="J29">
+        <v>0.285858</v>
+      </c>
+      <c r="K29">
         <v>0.27905099999999999</v>
       </c>
-      <c r="F29">
-        <v>360.67603700000001</v>
-      </c>
-      <c r="G29">
+      <c r="L29">
         <v>0.82636900000000002</v>
       </c>
-      <c r="H29">
+      <c r="M29">
+        <v>0.678257</v>
+      </c>
+      <c r="N29">
+        <v>0.58541900000000002</v>
+      </c>
+      <c r="O29">
+        <v>0.67625999999999997</v>
+      </c>
+      <c r="Q29">
         <v>2.9053949999999999</v>
       </c>
-      <c r="I29">
-        <v>9.3213969999999993</v>
-      </c>
-      <c r="J29">
-        <v>0.678257</v>
-      </c>
-      <c r="K29">
+      <c r="R29">
         <v>2.97994</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <v>2.9754900000000002</v>
+      </c>
+      <c r="T29">
+        <v>2.6592099999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>5.1679999999999997E-2</v>
-      </c>
-      <c r="C30">
-        <v>0.56032899999999997</v>
       </c>
       <c r="D30">
         <v>5.3588999999999998E-2</v>
       </c>
       <c r="E30">
+        <v>186.45479800000001</v>
+      </c>
+      <c r="F30">
+        <v>3.7838159999999998</v>
+      </c>
+      <c r="G30">
+        <v>200.706085</v>
+      </c>
+      <c r="H30">
+        <v>253.503185</v>
+      </c>
+      <c r="J30">
+        <v>0.56032899999999997</v>
+      </c>
+      <c r="K30">
         <v>0.57682800000000001</v>
       </c>
-      <c r="F30">
-        <v>186.45479800000001</v>
-      </c>
-      <c r="G30">
+      <c r="L30">
         <v>0.62525500000000001</v>
       </c>
-      <c r="H30">
+      <c r="M30">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="N30">
+        <v>0.65029199999999998</v>
+      </c>
+      <c r="O30">
+        <v>0.68675900000000001</v>
+      </c>
+      <c r="Q30">
         <v>2.6469140000000002</v>
       </c>
-      <c r="I30">
-        <v>3.7838159999999998</v>
-      </c>
-      <c r="J30">
-        <v>0.60750000000000004</v>
-      </c>
-      <c r="K30">
+      <c r="R30">
         <v>3.5845340000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <v>2.6250040000000001</v>
+      </c>
+      <c r="T30">
+        <v>3.208412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>5.0151000000000001E-2</v>
-      </c>
-      <c r="C31">
-        <v>0.59011199999999997</v>
       </c>
       <c r="D31">
         <v>5.1544E-2</v>
       </c>
       <c r="E31">
+        <v>155.78118000000001</v>
+      </c>
+      <c r="F31">
+        <v>3.3295629999999998</v>
+      </c>
+      <c r="G31">
+        <v>166.68939599999999</v>
+      </c>
+      <c r="H31">
+        <v>218.158512</v>
+      </c>
+      <c r="J31">
+        <v>0.59011199999999997</v>
+      </c>
+      <c r="K31">
         <v>0.52525299999999997</v>
       </c>
-      <c r="F31">
-        <v>155.78118000000001</v>
-      </c>
-      <c r="G31">
+      <c r="L31">
         <v>0.60242600000000002</v>
       </c>
-      <c r="H31">
+      <c r="M31">
+        <v>0.63493599999999994</v>
+      </c>
+      <c r="N31">
+        <v>0.64164600000000005</v>
+      </c>
+      <c r="O31">
+        <v>0.64521099999999998</v>
+      </c>
+      <c r="Q31">
         <v>2.3951319999999998</v>
       </c>
-      <c r="I31">
-        <v>3.3295629999999998</v>
-      </c>
-      <c r="J31">
-        <v>0.63493599999999994</v>
-      </c>
-      <c r="K31">
+      <c r="R31">
         <v>3.854104</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>2.9713910000000001</v>
+      </c>
+      <c r="T31">
+        <v>3.7224110000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>6.2300000000000001E-2</v>
-      </c>
-      <c r="C32">
-        <v>0.56829499999999999</v>
       </c>
       <c r="D32">
         <v>6.2078000000000001E-2</v>
       </c>
       <c r="E32">
+        <v>233.02986200000001</v>
+      </c>
+      <c r="F32">
+        <v>4.1730299999999998</v>
+      </c>
+      <c r="G32">
+        <v>249.474142</v>
+      </c>
+      <c r="H32">
+        <v>292.06859600000001</v>
+      </c>
+      <c r="J32">
+        <v>0.56829499999999999</v>
+      </c>
+      <c r="K32">
         <v>0.53131700000000004</v>
       </c>
-      <c r="F32">
-        <v>233.02986200000001</v>
-      </c>
-      <c r="G32">
+      <c r="L32">
         <v>0.65850200000000003</v>
       </c>
-      <c r="H32">
+      <c r="M32">
+        <v>0.597908</v>
+      </c>
+      <c r="N32">
+        <v>0.62137900000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.61579499999999998</v>
+      </c>
+      <c r="Q32">
         <v>2.3076430000000001</v>
       </c>
-      <c r="I32">
-        <v>4.1730299999999998</v>
-      </c>
-      <c r="J32">
-        <v>0.597908</v>
-      </c>
-      <c r="K32">
+      <c r="R32">
         <v>2.9898099999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <v>2.8550689999999999</v>
+      </c>
+      <c r="T32">
+        <v>3.0333000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
+      <c r="E34">
+        <v>1.1643079999999999</v>
+      </c>
       <c r="F34">
-        <v>1.1643079999999999</v>
+        <v>8.5658999999999999E-2</v>
+      </c>
+      <c r="G34">
+        <v>1.250192</v>
       </c>
       <c r="H34">
+        <v>1.4810000000000001</v>
+      </c>
+      <c r="Q34">
         <v>17.060832999999999</v>
       </c>
-      <c r="I34">
-        <v>8.5658999999999999E-2</v>
-      </c>
-      <c r="K34">
+      <c r="R34">
         <v>27.367857000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <v>17.654167000000001</v>
+      </c>
+      <c r="T34">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
+      <c r="E35">
+        <v>1.163659</v>
+      </c>
       <c r="F35">
-        <v>1.163659</v>
+        <v>9.2378000000000002E-2</v>
+      </c>
+      <c r="G35">
+        <v>1.2844610000000001</v>
       </c>
       <c r="H35">
+        <v>1.7862290000000001</v>
+      </c>
+      <c r="Q35">
         <v>19.790952000000001</v>
       </c>
-      <c r="I35">
-        <v>9.2378000000000002E-2</v>
-      </c>
-      <c r="K35">
+      <c r="R35">
         <v>26.958729999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <v>13.267222</v>
+      </c>
+      <c r="T35">
+        <v>16.066666999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
+      <c r="E36">
+        <v>1.1484989999999999</v>
+      </c>
       <c r="F36">
-        <v>1.1484989999999999</v>
+        <v>0.104986</v>
+      </c>
+      <c r="G36">
+        <v>1.2119500000000001</v>
       </c>
       <c r="H36">
+        <v>1.72665</v>
+      </c>
+      <c r="Q36">
         <v>17.416667</v>
       </c>
-      <c r="I36">
-        <v>0.104986</v>
-      </c>
-      <c r="K36">
+      <c r="R36">
         <v>56.75</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="T36">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
+      <c r="E37">
+        <v>1.270886</v>
+      </c>
       <c r="F37">
-        <v>1.270886</v>
+        <v>8.5975999999999997E-2</v>
+      </c>
+      <c r="G37">
+        <v>1.178229</v>
       </c>
       <c r="H37">
+        <v>1.5643670000000001</v>
+      </c>
+      <c r="Q37">
         <v>9.5045450000000002</v>
       </c>
-      <c r="I37">
-        <v>8.5975999999999997E-2</v>
-      </c>
-      <c r="K37">
+      <c r="R37">
         <v>15.066667000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <v>8.6741530000000004</v>
+      </c>
+      <c r="T37">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
+      <c r="E38">
+        <v>1.183945</v>
+      </c>
       <c r="F38">
-        <v>1.183945</v>
+        <v>0.10233299999999999</v>
+      </c>
+      <c r="G38">
+        <v>1.2880929999999999</v>
       </c>
       <c r="H38">
+        <v>1.6733789999999999</v>
+      </c>
+      <c r="Q38">
         <v>11.367326</v>
       </c>
-      <c r="I38">
-        <v>0.10233299999999999</v>
-      </c>
-      <c r="K38">
+      <c r="R38">
         <v>51.140909000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <v>16.261429</v>
+      </c>
+      <c r="T38">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
+      <c r="E39">
+        <v>8.2044139999999999</v>
+      </c>
       <c r="F39">
-        <v>8.2044139999999999</v>
+        <v>0.37202499999999999</v>
+      </c>
+      <c r="G39">
+        <v>8.0779700000000005</v>
       </c>
       <c r="H39">
+        <v>14.588303</v>
+      </c>
+      <c r="Q39">
         <v>12.1</v>
       </c>
-      <c r="I39">
-        <v>0.37202499999999999</v>
-      </c>
-      <c r="K39">
+      <c r="R39">
         <v>25.606667000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <v>12.64119</v>
+      </c>
+      <c r="T39">
+        <v>14.340356999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
+      <c r="E40">
+        <v>8.2704979999999999</v>
+      </c>
       <c r="F40">
-        <v>8.2704979999999999</v>
+        <v>0.40235199999999999</v>
+      </c>
+      <c r="G40">
+        <v>8.2435550000000006</v>
       </c>
       <c r="H40">
+        <v>15.285955</v>
+      </c>
+      <c r="Q40">
         <v>12.111077999999999</v>
       </c>
-      <c r="I40">
-        <v>0.40235199999999999</v>
-      </c>
-      <c r="K40">
+      <c r="R40">
         <v>24.425000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <v>10.544872</v>
+      </c>
+      <c r="T40">
+        <v>11.523332999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
+      <c r="E41">
+        <v>8.2322699999999998</v>
+      </c>
       <c r="F41">
-        <v>8.2322699999999998</v>
+        <v>0.39719199999999999</v>
+      </c>
+      <c r="G41">
+        <v>8.1508660000000006</v>
       </c>
       <c r="H41">
+        <v>15.947851999999999</v>
+      </c>
+      <c r="Q41">
         <v>9.5175929999999997</v>
       </c>
-      <c r="I41">
-        <v>0.39719199999999999</v>
-      </c>
-      <c r="K41">
+      <c r="R41">
         <v>31.55</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <v>12.820833</v>
+      </c>
+      <c r="T41">
+        <v>9.1208329999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
+      <c r="E42">
+        <v>8.0063139999999997</v>
+      </c>
       <c r="F42">
-        <v>8.0063139999999997</v>
+        <v>0.36755300000000002</v>
+      </c>
+      <c r="G42">
+        <v>7.9159990000000002</v>
       </c>
       <c r="H42">
+        <v>16.468264999999999</v>
+      </c>
+      <c r="Q42">
         <v>15.202857</v>
       </c>
-      <c r="I42">
-        <v>0.36755300000000002</v>
-      </c>
-      <c r="K42">
+      <c r="R42">
         <v>16.032937</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <v>16.273571</v>
+      </c>
+      <c r="T42">
+        <v>8.3942060000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
+      <c r="E43">
+        <v>7.1420909999999997</v>
+      </c>
       <c r="F43">
-        <v>7.1420909999999997</v>
+        <v>0.31832700000000003</v>
+      </c>
+      <c r="G43">
+        <v>7.9439070000000003</v>
       </c>
       <c r="H43">
+        <v>14.399253</v>
+      </c>
+      <c r="Q43">
         <v>12.698624000000001</v>
       </c>
-      <c r="I43">
-        <v>0.31832700000000003</v>
-      </c>
-      <c r="K43">
+      <c r="R43">
         <v>17.331704999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <v>12.653968000000001</v>
+      </c>
+      <c r="T43">
+        <v>9.4666669999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
+      <c r="E44">
+        <v>26.143953</v>
+      </c>
       <c r="F44">
-        <v>26.143953</v>
+        <v>1.043442</v>
+      </c>
+      <c r="G44">
+        <v>29.065950000000001</v>
       </c>
       <c r="H44">
+        <v>57.413648000000002</v>
+      </c>
+      <c r="Q44">
         <v>10.303271000000001</v>
       </c>
-      <c r="I44">
-        <v>1.043442</v>
-      </c>
-      <c r="K44">
+      <c r="R44">
         <v>13.57877</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <v>11.424761999999999</v>
+      </c>
+      <c r="T44">
+        <v>3.1072299999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
+      <c r="E45">
+        <v>25.955189000000001</v>
+      </c>
       <c r="F45">
-        <v>25.955189000000001</v>
+        <v>1.090489</v>
+      </c>
+      <c r="G45">
+        <v>28.613848999999998</v>
       </c>
       <c r="H45">
+        <v>55.671964000000003</v>
+      </c>
+      <c r="Q45">
         <v>9.8126979999999993</v>
       </c>
-      <c r="I45">
-        <v>1.090489</v>
-      </c>
-      <c r="K45">
+      <c r="R45">
         <v>13.522917</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <v>11.96297</v>
+      </c>
+      <c r="T45">
+        <v>2.921465</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
+      <c r="E46">
+        <v>26.060040000000001</v>
+      </c>
       <c r="F46">
-        <v>26.060040000000001</v>
+        <v>1.074854</v>
+      </c>
+      <c r="G46">
+        <v>30.580321999999999</v>
       </c>
       <c r="H46">
+        <v>48.792090000000002</v>
+      </c>
+      <c r="Q46">
         <v>9.9643259999999998</v>
       </c>
-      <c r="I46">
-        <v>1.074854</v>
-      </c>
-      <c r="K46">
+      <c r="R46">
         <v>10.827143</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <v>8.9213129999999996</v>
+      </c>
+      <c r="T46">
+        <v>2.9154390000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
+      <c r="E47">
+        <v>26.834668000000001</v>
+      </c>
       <c r="F47">
-        <v>26.834668000000001</v>
+        <v>1.2046479999999999</v>
+      </c>
+      <c r="G47">
+        <v>30.452725999999998</v>
       </c>
       <c r="H47">
+        <v>52.442757</v>
+      </c>
+      <c r="Q47">
         <v>12.507939</v>
       </c>
-      <c r="I47">
-        <v>1.2046479999999999</v>
-      </c>
-      <c r="K47">
+      <c r="R47">
         <v>14.29125</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <v>11.469773</v>
+      </c>
+      <c r="T47">
+        <v>3.2328239999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
+      <c r="E48">
+        <v>25.673521999999998</v>
+      </c>
       <c r="F48">
-        <v>25.673521999999998</v>
+        <v>1.0857600000000001</v>
+      </c>
+      <c r="G48">
+        <v>29.191499</v>
       </c>
       <c r="H48">
+        <v>56.064782999999998</v>
+      </c>
+      <c r="Q48">
         <v>10.025268000000001</v>
       </c>
-      <c r="I48">
-        <v>1.0857600000000001</v>
-      </c>
-      <c r="K48">
+      <c r="R48">
         <v>12.501429</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <v>10.340557</v>
+      </c>
+      <c r="T48">
+        <v>3.3120759999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
+      <c r="E49">
+        <v>118.70124</v>
+      </c>
       <c r="F49">
-        <v>118.70124</v>
+        <v>3.0975489999999999</v>
+      </c>
+      <c r="G49">
+        <v>129.88451599999999</v>
       </c>
       <c r="H49">
+        <v>135.44962799999999</v>
+      </c>
+      <c r="Q49">
         <v>6.5037399999999996</v>
       </c>
-      <c r="I49">
-        <v>3.0975489999999999</v>
-      </c>
-      <c r="K49">
+      <c r="R49">
         <v>21.65</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <v>7.5631789999999999</v>
+      </c>
+      <c r="T49">
+        <v>8.4265240000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
+      <c r="E50">
+        <v>118.77157099999999</v>
+      </c>
       <c r="F50">
-        <v>118.77157099999999</v>
+        <v>3.0344370000000001</v>
+      </c>
+      <c r="G50">
+        <v>129.39966799999999</v>
       </c>
       <c r="H50">
+        <v>142.75616500000001</v>
+      </c>
+      <c r="Q50">
         <v>6.8301100000000003</v>
       </c>
-      <c r="I50">
-        <v>3.0344370000000001</v>
-      </c>
-      <c r="K50">
+      <c r="R50">
         <v>11.374935000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <v>7.4129370000000003</v>
+      </c>
+      <c r="T50">
+        <v>4.6620239999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
+      <c r="E51">
+        <v>119.079756</v>
+      </c>
       <c r="F51">
-        <v>119.079756</v>
+        <v>3.0414729999999999</v>
+      </c>
+      <c r="G51">
+        <v>127.93153700000001</v>
       </c>
       <c r="H51">
+        <v>148.54311200000001</v>
+      </c>
+      <c r="Q51">
         <v>7.4845240000000004</v>
       </c>
-      <c r="I51">
-        <v>3.0414729999999999</v>
-      </c>
-      <c r="K51">
+      <c r="R51">
         <v>17.130392000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <v>10.519856000000001</v>
+      </c>
+      <c r="T51">
+        <v>5.7525040000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
+      <c r="E52">
+        <v>121.364268</v>
+      </c>
       <c r="F52">
-        <v>121.364268</v>
+        <v>3.0616180000000002</v>
+      </c>
+      <c r="G52">
+        <v>132.620396</v>
       </c>
       <c r="H52">
+        <v>146.34218200000001</v>
+      </c>
+      <c r="Q52">
         <v>7.2564010000000003</v>
       </c>
-      <c r="I52">
-        <v>3.0616180000000002</v>
-      </c>
-      <c r="K52">
+      <c r="R52">
         <v>10.772976</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <v>8.4011110000000002</v>
+      </c>
+      <c r="T52">
+        <v>6.3268760000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
+      <c r="E53">
+        <v>121.90133400000001</v>
+      </c>
       <c r="F53">
-        <v>121.90133400000001</v>
+        <v>3.0217869999999998</v>
+      </c>
+      <c r="G53">
+        <v>129.70387500000001</v>
       </c>
       <c r="H53">
+        <v>148.83133799999999</v>
+      </c>
+      <c r="Q53">
         <v>7.209708</v>
       </c>
-      <c r="I53">
-        <v>3.0217869999999998</v>
-      </c>
-      <c r="K53">
+      <c r="R53">
         <v>11.329363000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <v>6.913519</v>
+      </c>
+      <c r="T53">
+        <v>4.865564</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
+      <c r="E54">
+        <v>283.88417399999997</v>
+      </c>
       <c r="F54">
-        <v>283.88417399999997</v>
+        <v>5.1120469999999996</v>
+      </c>
+      <c r="G54">
+        <v>302.70328899999998</v>
       </c>
       <c r="H54">
+        <v>296.23219699999999</v>
+      </c>
+      <c r="Q54">
         <v>7.237546</v>
       </c>
-      <c r="I54">
-        <v>5.1120469999999996</v>
-      </c>
-      <c r="K54">
+      <c r="R54">
         <v>10.860771</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <v>5.6508349999999998</v>
+      </c>
+      <c r="T54">
+        <v>7.0066670000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
+      <c r="E55">
+        <v>283.24114200000002</v>
+      </c>
       <c r="F55">
-        <v>283.24114200000002</v>
+        <v>5.333151</v>
+      </c>
+      <c r="G55">
+        <v>301.86561699999999</v>
       </c>
       <c r="H55">
+        <v>290.48595399999999</v>
+      </c>
+      <c r="Q55">
         <v>7.0944969999999996</v>
       </c>
-      <c r="I55">
-        <v>5.333151</v>
-      </c>
-      <c r="K55">
+      <c r="R55">
         <v>11.9125</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <v>5.9693569999999996</v>
+      </c>
+      <c r="T55">
+        <v>8.6859649999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
+      <c r="E56">
+        <v>284.11496799999998</v>
+      </c>
       <c r="F56">
-        <v>284.11496799999998</v>
+        <v>5.2229660000000004</v>
+      </c>
+      <c r="G56">
+        <v>308.46461299999999</v>
       </c>
       <c r="H56">
+        <v>267.43584499999997</v>
+      </c>
+      <c r="Q56">
         <v>6.2751789999999996</v>
       </c>
-      <c r="I56">
-        <v>5.2229660000000004</v>
-      </c>
-      <c r="K56">
+      <c r="R56">
         <v>15.093845999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <v>5.6934529999999999</v>
+      </c>
+      <c r="T56">
+        <v>6.3723809999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
+      <c r="E57">
+        <v>277.01971099999997</v>
+      </c>
       <c r="F57">
-        <v>277.01971099999997</v>
+        <v>5.1663490000000003</v>
+      </c>
+      <c r="G57">
+        <v>300.00802199999998</v>
       </c>
       <c r="H57">
+        <v>295.523461</v>
+      </c>
+      <c r="Q57">
         <v>6.3308970000000002</v>
       </c>
-      <c r="I57">
-        <v>5.1663490000000003</v>
-      </c>
-      <c r="K57">
+      <c r="R57">
         <v>15.093845999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S57">
+        <v>6.0868989999999998</v>
+      </c>
+      <c r="T57">
+        <v>7.7583330000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
+      <c r="E58">
+        <v>279.33385399999997</v>
+      </c>
       <c r="F58">
-        <v>279.33385399999997</v>
+        <v>5.0108350000000002</v>
+      </c>
+      <c r="G58">
+        <v>306.68437</v>
       </c>
       <c r="H58">
+        <v>312.50248299999998</v>
+      </c>
+      <c r="Q58">
         <v>6.6409859999999998</v>
       </c>
-      <c r="I58">
-        <v>5.0108350000000002</v>
-      </c>
-      <c r="K58">
+      <c r="R58">
         <v>13.372726999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S58">
+        <v>5.3773799999999996</v>
+      </c>
+      <c r="T58">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
+      <c r="E59">
+        <v>587.79500499999995</v>
+      </c>
       <c r="F59">
-        <v>587.79500499999995</v>
-      </c>
-      <c r="H59">
+        <v>13.115316999999999</v>
+      </c>
+      <c r="Q59">
         <v>4.7096289999999996</v>
       </c>
-      <c r="I59">
-        <v>13.115316999999999</v>
-      </c>
-      <c r="K59">
+      <c r="R59">
         <v>6.2891570000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
+      <c r="E60">
+        <v>587.90987399999995</v>
+      </c>
       <c r="F60">
-        <v>587.90987399999995</v>
-      </c>
-      <c r="H60">
+        <v>13.990283</v>
+      </c>
+      <c r="Q60">
         <v>5.2819779999999996</v>
       </c>
-      <c r="I60">
-        <v>13.990283</v>
-      </c>
-      <c r="K60">
+      <c r="R60">
         <v>8.4124639999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
+      <c r="E61">
+        <v>580.58281499999998</v>
+      </c>
       <c r="F61">
-        <v>580.58281499999998</v>
-      </c>
-      <c r="H61">
+        <v>13.34384</v>
+      </c>
+      <c r="Q61">
         <v>5.0146519999999999</v>
       </c>
-      <c r="I61">
-        <v>13.34384</v>
-      </c>
-      <c r="K61">
+      <c r="R61">
         <v>7.3928390000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
+      <c r="E62">
+        <v>582.146297</v>
+      </c>
       <c r="F62">
-        <v>582.146297</v>
-      </c>
-      <c r="H62">
+        <v>13.940023999999999</v>
+      </c>
+      <c r="Q62">
         <v>5.0808260000000001</v>
       </c>
-      <c r="I62">
-        <v>13.940023999999999</v>
-      </c>
-      <c r="K62">
+      <c r="R62">
         <v>5.8419990000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
+      <c r="E63">
+        <v>572.32018700000003</v>
+      </c>
       <c r="F63">
-        <v>572.32018700000003</v>
-      </c>
-      <c r="H63">
+        <v>13.345772999999999</v>
+      </c>
+      <c r="Q63">
         <v>5.6259490000000003</v>
       </c>
-      <c r="I63">
-        <v>13.345772999999999</v>
-      </c>
-      <c r="K63">
+      <c r="R63">
         <v>8.4493729999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
+      <c r="E64">
+        <v>1124.4535330000001</v>
+      </c>
       <c r="F64">
-        <v>1124.4535330000001</v>
-      </c>
-      <c r="H64">
+        <v>20.248978000000001</v>
+      </c>
+      <c r="Q64">
         <v>5.115227</v>
       </c>
-      <c r="I64">
-        <v>20.248978000000001</v>
-      </c>
-      <c r="K64">
+      <c r="R64">
         <v>6.4315889999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
+      <c r="E65">
+        <v>1127.103132</v>
+      </c>
       <c r="F65">
-        <v>1127.103132</v>
-      </c>
-      <c r="H65">
+        <v>19.754103000000001</v>
+      </c>
+      <c r="Q65">
         <v>6.6107019999999999</v>
       </c>
-      <c r="I65">
-        <v>19.754103000000001</v>
-      </c>
-      <c r="K65">
+      <c r="R65">
         <v>8.2069089999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
+      <c r="E66">
+        <v>1126.3233929999999</v>
+      </c>
       <c r="F66">
-        <v>1126.3233929999999</v>
-      </c>
-      <c r="H66">
+        <v>19.729516</v>
+      </c>
+      <c r="Q66">
         <v>4.8282040000000004</v>
       </c>
-      <c r="I66">
-        <v>19.729516</v>
-      </c>
-      <c r="K66">
+      <c r="R66">
         <v>5.9405640000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
+      <c r="E67">
+        <v>1092.950523</v>
+      </c>
       <c r="F67">
-        <v>1092.950523</v>
-      </c>
-      <c r="H67">
+        <v>19.862591999999999</v>
+      </c>
+      <c r="Q67">
         <v>5.4157760000000001</v>
       </c>
-      <c r="I67">
-        <v>19.862591999999999</v>
-      </c>
-      <c r="K67">
+      <c r="R67">
         <v>8.9336389999999994</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
+      <c r="E68">
+        <v>1957.6519330000001</v>
+      </c>
       <c r="F68">
-        <v>1957.6519330000001</v>
-      </c>
-      <c r="H68">
+        <v>27.553940999999998</v>
+      </c>
+      <c r="Q68">
         <v>3.8503400000000001</v>
       </c>
-      <c r="I68">
-        <v>27.553940999999998</v>
-      </c>
-      <c r="K68">
+      <c r="R68">
         <v>6.0733009999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
+      <c r="E69">
+        <v>1975.705698</v>
+      </c>
       <c r="F69">
-        <v>1975.705698</v>
-      </c>
-      <c r="H69">
+        <v>29.117360000000001</v>
+      </c>
+      <c r="Q69">
         <v>4.2769839999999997</v>
       </c>
-      <c r="I69">
-        <v>29.117360000000001</v>
-      </c>
-      <c r="K69">
+      <c r="R69">
         <v>8.6366200000000006</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
+      <c r="E70">
+        <v>1963.9396670000001</v>
+      </c>
       <c r="F70">
-        <v>1963.9396670000001</v>
-      </c>
-      <c r="H70">
+        <v>26.034220000000001</v>
+      </c>
+      <c r="Q70">
         <v>4.5391709999999996</v>
       </c>
-      <c r="I70">
-        <v>26.034220000000001</v>
-      </c>
-      <c r="K70">
+      <c r="R70">
         <v>9.377853</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
+      <c r="E71">
+        <v>3436.1769859999999</v>
+      </c>
       <c r="F71">
-        <v>3436.1769859999999</v>
-      </c>
-      <c r="H71">
+        <v>35.570296999999997</v>
+      </c>
+      <c r="Q71">
         <v>3.773409</v>
       </c>
-      <c r="I71">
-        <v>35.570296999999997</v>
-      </c>
-      <c r="K71">
+      <c r="R71">
         <v>7.3526879999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
+      <c r="E72">
+        <v>3443.3901569999998</v>
+      </c>
       <c r="F72">
-        <v>3443.3901569999998</v>
-      </c>
-      <c r="H72">
+        <v>37.448788</v>
+      </c>
+      <c r="Q72">
         <v>4.1161880000000002</v>
       </c>
-      <c r="I72">
-        <v>37.448788</v>
-      </c>
-      <c r="K72">
+      <c r="R72">
         <v>8.5205629999999992</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
+      <c r="E73">
+        <v>3745.394867</v>
+      </c>
       <c r="F73">
-        <v>3745.394867</v>
-      </c>
-      <c r="H73">
+        <v>36.823414</v>
+      </c>
+      <c r="Q73">
         <v>3.90551</v>
       </c>
-      <c r="I73">
-        <v>36.823414</v>
-      </c>
-      <c r="K73">
+      <c r="R73">
         <v>6.4552360000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9747,7 +10691,7 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -10180,6 +11124,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10191,7 +11140,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -10750,5 +11699,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/Results.xlsx
+++ b/data/Results.xlsx
@@ -8042,8 +8042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8219,16 +8219,16 @@
         <v>3.0019999999999999E-3</v>
       </c>
       <c r="E4">
-        <v>3.1605490000000001</v>
+        <v>3.4529580000000002</v>
       </c>
       <c r="F4">
-        <v>0.22569900000000001</v>
+        <v>0.213204</v>
       </c>
       <c r="G4">
-        <v>3.7941259999999999</v>
+        <v>3.1454659999999999</v>
       </c>
       <c r="H4">
-        <v>5.122153</v>
+        <v>6.2055899999999999</v>
       </c>
       <c r="J4">
         <v>0.5</v>
@@ -8237,28 +8237,28 @@
         <v>0.5</v>
       </c>
       <c r="L4">
-        <v>0.887656</v>
+        <v>0.788937</v>
       </c>
       <c r="M4">
-        <v>0.76726899999999998</v>
+        <v>0.70854200000000001</v>
       </c>
       <c r="N4">
-        <v>0.76212199999999997</v>
+        <v>0.78182300000000005</v>
       </c>
       <c r="O4">
-        <v>0.732074</v>
+        <v>0.76264299999999996</v>
       </c>
       <c r="Q4">
-        <v>2560631.4593409998</v>
+        <v>2093263.2566800001</v>
       </c>
       <c r="R4">
-        <v>2550279.5662949998</v>
+        <v>2847983.4667079998</v>
       </c>
       <c r="S4">
-        <v>2787312.008841</v>
+        <v>2159244.042963</v>
       </c>
       <c r="T4">
-        <v>1623132.096315</v>
+        <v>1640505.47233</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
